--- a/animals/nematodes/nematode_biomass_data.xlsx
+++ b/animals/nematodes/nematode_biomass_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fierer" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t xml:space="preserve">Remarks</t>
   </si>
@@ -68,13 +68,19 @@
     <t xml:space="preserve">Crops</t>
   </si>
   <si>
-    <t xml:space="preserve">Taken from Table 5.3 in Biogeochemistry by </t>
+    <t xml:space="preserve">Taken from Table 5.3 in Biogeochemistry: An analysis of Global Change by Schlesinger &amp; Bernhardt.</t>
   </si>
   <si>
     <t xml:space="preserve">Area [m^2]</t>
   </si>
   <si>
     <t xml:space="preserve">We divided the temperate forests equally between coniferous and deciduous forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate deciduous forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate grassland</t>
   </si>
   <si>
     <t xml:space="preserve">We divided the tropical savanna between native savanna and tropical pastures</t>
@@ -88,11 +94,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -108,6 +115,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,12 +164,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,13 +200,13 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,7 +323,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -322,20 +338,20 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1"/>
@@ -355,7 +371,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>13700000000000</v>
       </c>
       <c r="C3" s="1"/>
@@ -364,7 +380,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>27700000000000</v>
       </c>
       <c r="C4" s="1"/>
@@ -373,7 +389,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>5200000000000</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -382,9 +398,9 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>5200000000000</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -393,9 +409,9 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>15000000000000</v>
       </c>
       <c r="C7" s="1"/>
@@ -404,7 +420,7 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>17500000000000</v>
       </c>
       <c r="C8" s="1"/>
@@ -413,7 +429,7 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>5600000000000</v>
       </c>
       <c r="C9" s="1"/>
@@ -422,29 +438,29 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>13850000000000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>13850000000000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>15500000000000</v>
       </c>
       <c r="C12" s="1"/>
@@ -452,7 +468,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
